--- a/gdms0810_Database_Normalization/For_Ladies_DB_Normalization_V001.xlsx
+++ b/gdms0810_Database_Normalization/For_Ladies_DB_Normalization_V001.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rb\Documents\HSRW\Teaching\EE_GeoData\EE_Geodata_WS2020\REPO\EE_3.07_Geodata_WS2020\gdms0810_Database_Normalization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="21135" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Start_Overview" sheetId="3" r:id="rId1"/>
-    <sheet name="Customer" sheetId="6" r:id="rId2"/>
-    <sheet name="Employee" sheetId="7" r:id="rId3"/>
-    <sheet name="Product" sheetId="8" r:id="rId4"/>
-    <sheet name="Order" sheetId="9" r:id="rId5"/>
-    <sheet name="Order Details" sheetId="5" r:id="rId6"/>
+    <sheet name="Start_Overview_Order_ID" sheetId="10" r:id="rId2"/>
+    <sheet name="Customer" sheetId="6" r:id="rId3"/>
+    <sheet name="Employee" sheetId="7" r:id="rId4"/>
+    <sheet name="Product" sheetId="8" r:id="rId5"/>
+    <sheet name="Order" sheetId="9" r:id="rId6"/>
+    <sheet name="Order Details" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
   <si>
     <t>Customer</t>
   </si>
@@ -141,11 +147,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +233,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,9 +285,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +319,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +354,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,12 +530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
@@ -532,10 +550,8 @@
     <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
@@ -558,10 +574,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
       <c r="B2" s="6">
         <v>40122</v>
       </c>
@@ -584,10 +598,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
       <c r="B3" s="6">
         <v>40122</v>
       </c>
@@ -610,10 +622,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
       <c r="B4" s="6">
         <v>40124</v>
       </c>
@@ -636,10 +646,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
       <c r="B5" s="6">
         <v>40124</v>
       </c>
@@ -662,10 +670,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
       <c r="B6" s="6">
         <v>40124</v>
       </c>
@@ -688,10 +694,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
       <c r="B7" s="6">
         <v>40124</v>
       </c>
@@ -714,10 +718,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
       <c r="B8" s="6">
         <v>40124</v>
       </c>
@@ -740,10 +742,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>40125</v>
       </c>
@@ -766,10 +766,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>40126</v>
       </c>
@@ -792,10 +790,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>40126</v>
       </c>
@@ -818,10 +814,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>40127</v>
       </c>
@@ -851,12 +845,349 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>40122</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>230</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>40122</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>230</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>40124</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>40124</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>40124</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>200</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>40124</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>40124</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>40125</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3">
+        <v>230</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>40126</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>40126</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>230</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>40127</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3">
+        <v>230</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="26.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -865,7 +1196,7 @@
     <col min="5" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -879,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1">
+    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -893,7 +1224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25" customHeight="1">
+    <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -907,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1">
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -921,7 +1252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1">
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -941,13 +1272,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="4" bestFit="1" customWidth="1"/>
@@ -956,7 +1287,7 @@
     <col min="5" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -970,7 +1301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1">
+    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -982,7 +1313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25" customHeight="1">
+    <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -994,7 +1325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1">
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1006,7 +1337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1">
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1018,7 +1349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1035,13 +1366,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1049,7 +1380,7 @@
     <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1060,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1071,7 +1402,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1082,7 +1413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1093,7 +1424,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1">
+    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1104,7 +1435,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1">
+    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1115,7 +1446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1">
+    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1131,13 +1462,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
@@ -1146,7 +1477,7 @@
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1160,7 +1491,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1">
+    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1174,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25" customHeight="1">
+    <row r="3" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1188,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1">
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1202,7 +1533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1">
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1216,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1230,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1">
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1244,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1">
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1258,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1">
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1277,13 +1608,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1298,7 +1629,7 @@
     <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1313,7 +1644,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1324,7 +1655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1335,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1346,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1357,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1368,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1379,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1393,7 +1724,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1404,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1415,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1426,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
